--- a/Documentacion/Otro/Selección-modelo-desarrollo.xlsx
+++ b/Documentacion/Otro/Selección-modelo-desarrollo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\porra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\SkyDevs\Documentacion\Otro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E261A6A6-B571-4B3F-BF4D-43AA776C3E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8222D034-9C6F-48DD-84F4-16E9FED7730D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -125,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,12 +193,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,8 +400,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>449036</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>190122</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>51</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -945,71 +944,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E578C06F-E698-43C9-A104-44975DF45310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1038,34 +1037,34 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,30 +1085,30 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1134,34 +1133,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1192,34 +1191,34 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1238,52 +1237,52 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f>SUM(C5:C13)</f>
         <v>2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" ref="D14:L14" si="0">SUM(D5:D13)</f>
         <v>2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>22</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
         <v>23</v>
       </c>
@@ -1299,7 +1298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
         <v>24</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>10</v>
       </c>
